--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F584D7B2-65E8-4F94-B232-FADFA6B98F14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA9831-8041-4E4A-9874-E0EC5A99398A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{EE50C813-D3B2-4BDC-82BB-4D92AE2FBC1A}">
+    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{EE50C813-D3B2-4BDC-82BB-4D92AE2FBC1A}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="112">
   <si>
     <t>do not print this form</t>
   </si>
@@ -242,27 +242,12 @@
     <t>expected result</t>
   </si>
   <si>
-    <t>TC_3</t>
-  </si>
-  <si>
-    <t>Error message</t>
-  </si>
-  <si>
     <t>TC_1</t>
   </si>
   <si>
-    <t>inregistare add</t>
-  </si>
-  <si>
     <t>TC_4</t>
   </si>
   <si>
-    <t>inregistrare add</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>TC_6</t>
   </si>
   <si>
@@ -293,9 +278,6 @@
     <t xml:space="preserve">inregistare adaugata </t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>TC2_BVA</t>
   </si>
   <si>
@@ -303,15 +285,6 @@
   </si>
   <si>
     <t>TC6_BVA</t>
-  </si>
-  <si>
-    <t>TC8_BVA</t>
-  </si>
-  <si>
-    <t>TC9_BVA</t>
-  </si>
-  <si>
-    <t>TC12_BVA</t>
   </si>
   <si>
     <t>Statistics</t>
@@ -468,51 +441,12 @@
     <t>03. Salary = 1</t>
   </si>
   <si>
-    <t>04. Salary = 999</t>
-  </si>
-  <si>
-    <t>05. Salary = 1000</t>
-  </si>
-  <si>
-    <t>7. CNP.len=0, ""</t>
-  </si>
-  <si>
-    <t>8. CNP.len=4 , "aaaa"</t>
-  </si>
-  <si>
-    <t>9. CNP.len =13 ,"1910512345657"</t>
-  </si>
-  <si>
-    <t>10. CNP.len =13 ,"1910512345abc"</t>
-  </si>
-  <si>
-    <t>11. CNP.len=7 , "123a.,4"</t>
-  </si>
-  <si>
-    <t>12. CNP.len =13 ,"1910512-?a657"</t>
-  </si>
-  <si>
     <t>TC_8</t>
   </si>
   <si>
-    <t>"aaaa"</t>
-  </si>
-  <si>
     <t>"1910512345657"</t>
   </si>
   <si>
-    <t>"1910512345abc"</t>
-  </si>
-  <si>
-    <t>"123a.,4"</t>
-  </si>
-  <si>
-    <t>"1910512-?a657"</t>
-  </si>
-  <si>
-    <t>06. Salary = 300000000</t>
-  </si>
-  <si>
     <t>TC_5</t>
   </si>
   <si>
@@ -525,9 +459,6 @@
     <t>Re-Testing</t>
   </si>
   <si>
-    <t>Error message-InvalidCNP</t>
-  </si>
-  <si>
     <t>TC1_BVA</t>
   </si>
   <si>
@@ -537,18 +468,6 @@
     <t>TC5_BVA</t>
   </si>
   <si>
-    <t>TC7_BVA</t>
-  </si>
-  <si>
-    <t>TC10_BVA</t>
-  </si>
-  <si>
-    <t>TC11_BVA</t>
-  </si>
-  <si>
-    <t>Error message-InvalidSalary</t>
-  </si>
-  <si>
     <t>"1910509111157"</t>
   </si>
   <si>
@@ -559,6 +478,30 @@
   </si>
   <si>
     <t>F01.  adăugarea unei note(Salary, materi, nota);</t>
+  </si>
+  <si>
+    <t>4. CNP.len=12, "191051234565"</t>
+  </si>
+  <si>
+    <t>5. CNP.len=14 , "19105123456578"</t>
+  </si>
+  <si>
+    <t>6. CNP.len =13 ,"1910512345657"</t>
+  </si>
+  <si>
+    <t>"191051234565"</t>
+  </si>
+  <si>
+    <t>"19105123456578"</t>
+  </si>
+  <si>
+    <t>not added</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inregistare neadaugata </t>
   </si>
 </sst>
 </file>
@@ -742,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -779,21 +722,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -815,30 +743,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1056,19 +960,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1077,17 +968,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1134,11 +1014,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1150,9 +1050,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,7 +1058,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1186,56 +1083,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1244,64 +1120,58 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1310,164 +1180,179 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1813,58 +1698,58 @@
   <dimension ref="B1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
+      <c r="D1" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="L4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="68"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="3"/>
       <c r="O4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="65">
+      <c r="P4" s="55">
         <v>231</v>
       </c>
-      <c r="Q4" s="67"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1889,8 +1774,8 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>128</v>
+      <c r="B9" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1912,7 +1797,7 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1922,9 +1807,9 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
@@ -1953,8 +1838,8 @@
   </sheetPr>
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,327 +1861,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
+      <c r="D1" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K4" s="46"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="H5" s="50" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="H5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>2</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+      <c r="J8" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="38">
+        <v>3000</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>3</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="H9" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="18">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="44" t="s">
+      <c r="I9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="38">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>4</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="17">
+        <v>3</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="38">
+        <v>3000</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>5</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="H11" s="17">
+        <v>4</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="47">
+      <c r="J11" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="38">
         <v>3000</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
-        <v>3</v>
-      </c>
-      <c r="C9" s="69" t="s">
+      <c r="L11" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="17">
+        <v>5</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="38">
+        <v>3000</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>9</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="H13" s="17">
+        <v>6</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="38">
+        <v>300000000</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>10</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="17">
+        <v>7</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="38">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>11</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="H9" s="18">
-        <v>2</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="43" t="s">
+      <c r="E15" s="12"/>
+      <c r="H15" s="17">
+        <v>8</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="38">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>12</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>13</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="K9" s="47">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
-        <v>4</v>
-      </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="18">
-        <v>3</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="47">
-        <v>3000</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
-        <v>5</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="H11" s="18">
-        <v>4</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="47">
-        <v>3000</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
-        <v>6</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="18">
-        <v>5</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="47">
-        <v>3000</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
-        <v>9</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="H13" s="18">
-        <v>6</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="47">
-        <v>300000000</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
-        <v>10</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="18">
-        <v>7</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="47">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
-        <v>11</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="H15" s="18">
-        <v>8</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="47">
-        <v>-1</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
-        <v>12</v>
-      </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
-        <v>13</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -2326,8 +2211,8 @@
   </sheetPr>
   <dimension ref="B1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,66 +2235,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
+      <c r="D1" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="B3" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="95" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -2421,429 +2306,330 @@
       <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="85" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="65" t="s">
+      <c r="L6" s="56"/>
+      <c r="M6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="67"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="79">
+      <c r="B7" s="74">
         <v>1</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="89" t="s">
+      <c r="C7" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="90"/>
+      <c r="N7" s="82"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="18">
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17">
         <v>1</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5">
         <v>-1</v>
       </c>
-      <c r="L8" s="58" t="s">
-        <v>110</v>
+      <c r="L8" s="109" t="s">
+        <v>92</v>
       </c>
       <c r="M8" s="77" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="N8" s="78"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17">
         <v>2</v>
       </c>
       <c r="H9" s="6">
         <v>2</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5">
         <v>0</v>
       </c>
-      <c r="L9" s="58" t="s">
-        <v>110</v>
+      <c r="L9" s="109" t="s">
+        <v>92</v>
       </c>
       <c r="M9" s="77" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="N9" s="78"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="18">
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17">
         <v>3</v>
       </c>
       <c r="H10" s="6">
         <v>3</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="58" t="s">
+      <c r="L10" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="77" t="s">
-        <v>35</v>
-      </c>
       <c r="N10" s="78"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="18">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17">
         <v>4</v>
       </c>
       <c r="H11" s="6">
         <v>4</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5">
-        <v>999</v>
-      </c>
-      <c r="L11" s="58" t="s">
-        <v>110</v>
+      <c r="K11" s="34">
+        <v>3000</v>
+      </c>
+      <c r="L11" s="109" t="s">
+        <v>107</v>
       </c>
       <c r="M11" s="77" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="N11" s="78"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="18">
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="17">
         <v>5</v>
       </c>
       <c r="H12" s="6">
         <v>5</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="L12" s="58" t="s">
-        <v>110</v>
+      <c r="K12" s="34">
+        <v>3000</v>
+      </c>
+      <c r="L12" s="109" t="s">
+        <v>108</v>
       </c>
       <c r="M12" s="77" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="N12" s="78"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="79">
+      <c r="B13" s="74">
         <v>2</v>
       </c>
-      <c r="C13" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="18">
+      <c r="C13" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17">
         <v>6</v>
       </c>
       <c r="H13" s="6">
         <v>6</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="5">
-        <v>300000000</v>
-      </c>
-      <c r="L13" s="58" t="s">
+      <c r="K13" s="34">
+        <v>3000</v>
+      </c>
+      <c r="L13" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="M13" s="77" t="s">
-        <v>35</v>
-      </c>
       <c r="N13" s="78"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="80"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="18">
-        <v>7</v>
-      </c>
-      <c r="H14" s="6">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="42">
-        <v>3000</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="77" t="s">
-        <v>33</v>
-      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="78"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="80"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="18">
-        <v>8</v>
-      </c>
-      <c r="H15" s="6">
-        <v>8</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="42">
-        <v>3000</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="M15" s="77" t="s">
-        <v>33</v>
-      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="77"/>
       <c r="N15" s="78"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="80"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="18">
-        <v>9</v>
-      </c>
-      <c r="H16" s="6">
-        <v>9</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="42">
-        <v>3000</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="77" t="s">
-        <v>37</v>
-      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="78"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="18">
-        <v>10</v>
-      </c>
-      <c r="H17" s="6">
-        <v>10</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="42">
-        <v>3000</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" s="77" t="s">
-        <v>33</v>
-      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="77"/>
       <c r="N17" s="78"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="81"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="18">
-        <v>11</v>
-      </c>
-      <c r="H18" s="6">
-        <v>11</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="42">
-        <v>3000</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M18" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="78"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="18">
-        <v>12</v>
-      </c>
-      <c r="H19" s="6">
-        <v>12</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="42">
-        <v>3000</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="78"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="78"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="25">
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="H6:H7"/>
@@ -2860,18 +2646,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2884,10 +2658,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,540 +2669,492 @@
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="33.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
+      <c r="D1" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="91"/>
+      <c r="H4" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="92"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="116"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="114" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="F6" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="I6" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="105"/>
+      <c r="D7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="5">
+        <v>300000000</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="17">
+        <v>3</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="D8" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="17">
+        <v>4</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="F9" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
+        <v>5</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="17">
+        <v>6</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="109"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="115"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="F11" s="110" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
+        <v>7</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
+        <v>8</v>
+      </c>
+      <c r="C13" s="105"/>
+      <c r="D13" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39">
-        <v>1</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="F13" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="47">
-        <v>3000</v>
-      </c>
-      <c r="H6" s="25" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
-        <f>B6+1</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <f t="shared" ref="B8:B13" si="0">B7+1</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="H24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="J24" s="96"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="95"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="103"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="25">
+        <v>8</v>
+      </c>
+      <c r="D27" s="26">
+        <v>8</v>
+      </c>
+      <c r="E27" s="26">
         <v>0</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
-        <v>4</v>
-      </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
-        <v>5</v>
-      </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="19">
-        <v>999</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="19">
-        <v>300000000</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="45">
-        <v>3000</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28">
-        <v>9</v>
-      </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="45">
-        <v>3000</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="29">
-        <v>10</v>
-      </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="45">
-        <v>3000</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="29">
-        <v>11</v>
-      </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="45">
-        <v>3000</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="29">
-        <f>B16+1</f>
-        <v>12</v>
-      </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="45">
-        <v>3000</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="29">
-        <f>B17+1</f>
-        <v>13</v>
-      </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="45">
-        <v>3000</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="110" t="s">
+      <c r="F27" s="27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="12" t="s">
+      <c r="H27" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="113"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="112"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="103" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" s="103" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="103"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="31">
-        <f>SUM(D26:E26)</f>
+      <c r="I27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="30">
+        <f>SUM(K27:L27)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="36">
-        <f>SUM(K26:L26)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="I24:L24"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="C6:C19"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="C6:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
